--- a/examples/vpcwebapp/xlsx/vpc.xlsx
+++ b/examples/vpcwebapp/xlsx/vpc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3B340-0507-4848-BCBC-7C4CE8C0AC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54DB98A-6806-A84E-AE31-9AEB595E8E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="3060" windowWidth="19160" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="3480" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpcs" sheetId="56" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="171">
   <si>
     <t>public_gateway</t>
   </si>
@@ -305,9 +305,6 @@
     <t>*file</t>
   </si>
   <si>
-    <t>subnets.tf</t>
-  </si>
-  <si>
     <t>timeout.create</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>"${var.vpc-name}-${var.zone2}-bastion"</t>
   </si>
   <si>
-    <t>vpc.tf</t>
-  </si>
-  <si>
     <t>"${var.vpc-name}-${var.zone1}-pubgw"</t>
   </si>
   <si>
@@ -555,6 +549,9 @@
   </si>
   <si>
     <t>data.template_cloudinit_config.cloudinit-dbtier.rendered</t>
+  </si>
+  <si>
+    <t>main.tf</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FDFB22-8BE6-E54E-B5DD-237ED87A155B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1618,12 +1615,12 @@
         <v>12</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1634,11 +1631,11 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1705,18 +1702,18 @@
         <v>33</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>74</v>
@@ -1728,18 +1725,18 @@
         <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -1751,7 +1748,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1820,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1876,9 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E633D9-8336-4776-A01F-1859C551A2C4}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1934,27 +1929,27 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>74</v>
@@ -1968,30 +1963,30 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -2005,19 +2000,19 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2039,13 +2034,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>74</v>
@@ -2059,30 +2054,30 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -2096,19 +2091,19 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2130,13 +2125,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>74</v>
@@ -2150,30 +2145,30 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>74</v>
@@ -2187,19 +2182,19 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2221,13 +2216,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>74</v>
@@ -2245,24 +2240,24 @@
         <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>74</v>
@@ -2280,13 +2275,13 @@
         <v>76</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2345,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2398,31 +2393,31 @@
         <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="N1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>7</v>
@@ -2446,18 +2441,18 @@
         <v>51</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>74</v>
@@ -2472,30 +2467,30 @@
         <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2504,18 +2499,18 @@
         <v>53</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -2530,30 +2525,30 @@
         <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2562,7 +2557,7 @@
         <v>52</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -2593,13 +2588,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>74</v>
@@ -2614,30 +2609,30 @@
         <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -2646,18 +2641,18 @@
         <v>53</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -2672,30 +2667,30 @@
         <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2704,7 +2699,7 @@
         <v>52</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -2735,13 +2730,13 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>74</v>
@@ -2756,20 +2751,20 @@
         <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2777,25 +2772,25 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>74</v>
@@ -2810,20 +2805,20 @@
         <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2831,14 +2826,14 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -2906,9 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8FB4E8-B9B5-D24A-91D9-6FACBB875664}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2963,13 +2956,13 @@
         <v>12</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3091,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3177,21 +3170,21 @@
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -3200,11 +3193,11 @@
         <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3212,12 +3205,12 @@
         <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -3226,11 +3219,11 @@
         <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3238,7 +3231,7 @@
         <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3256,7 +3249,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
@@ -3269,18 +3262,18 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -3293,13 +3286,13 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3338,9 +3331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D2C3DE-61C3-C647-867F-B36753CD8C7A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3372,10 +3363,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>18</v>
@@ -3384,24 +3375,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>74</v>
@@ -3416,18 +3407,18 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -3442,7 +3433,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">

--- a/examples/vpcwebapp/xlsx/vpc.xlsx
+++ b/examples/vpcwebapp/xlsx/vpc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54DB98A-6806-A84E-AE31-9AEB595E8E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249EF69-D4D5-7444-9862-92366E627A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="3480" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="3060" windowWidth="19160" windowHeight="12180" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpcs" sheetId="56" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="images" sheetId="52" r:id="rId7"/>
     <sheet name="floatingips" sheetId="54" r:id="rId8"/>
     <sheet name="publicgateways" sheetId="55" r:id="rId9"/>
+    <sheet name="instancegroups" sheetId="58" r:id="rId10"/>
+    <sheet name="instancemanagers" sheetId="59" r:id="rId11"/>
+    <sheet name="instancepolicies" sheetId="60" r:id="rId12"/>
+    <sheet name="instancetemplates" sheetId="61" r:id="rId13"/>
+    <sheet name="flowlogs" sheetId="62" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="200">
   <si>
     <t>public_gateway</t>
   </si>
@@ -552,6 +557,93 @@
   </si>
   <si>
     <t>main.tf</t>
+  </si>
+  <si>
+    <t>*instance_template</t>
+  </si>
+  <si>
+    <t>*instance_count</t>
+  </si>
+  <si>
+    <t>*subnets</t>
+  </si>
+  <si>
+    <t>application_port</t>
+  </si>
+  <si>
+    <t>load_balancer</t>
+  </si>
+  <si>
+    <t>load_balancer_pool</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>*instance_group</t>
+  </si>
+  <si>
+    <t>enable_manager</t>
+  </si>
+  <si>
+    <t>manager_type</t>
+  </si>
+  <si>
+    <t>aggregation_window</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>*max_membership_count</t>
+  </si>
+  <si>
+    <t>min_membership_count</t>
+  </si>
+  <si>
+    <t>*policy_type</t>
+  </si>
+  <si>
+    <t>*instance_group_manager</t>
+  </si>
+  <si>
+    <t>metrc_type</t>
+  </si>
+  <si>
+    <t>metric_value</t>
+  </si>
+  <si>
+    <t>boot_volumn.size</t>
+  </si>
+  <si>
+    <t>boot_volume.profile</t>
+  </si>
+  <si>
+    <t>boot_volume.delete_volume_on_instance_delete</t>
+  </si>
+  <si>
+    <t>primary_network_interface.primary_ipv4_address</t>
+  </si>
+  <si>
+    <t>network_interfaces.primary_ipv4_address</t>
+  </si>
+  <si>
+    <t>volume_attachments.name</t>
+  </si>
+  <si>
+    <t>volume_attachments.volume</t>
+  </si>
+  <si>
+    <t>volume_attachments.delete_volume_on_instance_delete</t>
+  </si>
+  <si>
+    <t>*target</t>
+  </si>
+  <si>
+    <t>*storage_bucket</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -675,16 +767,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="203">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -731,126 +814,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -984,6 +947,421 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1129,186 +1507,301 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9570D1AD-4F2D-D14C-8C67-0A975A90B837}" name="Table3" displayName="Table3" ref="A1:H4" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9570D1AD-4F2D-D14C-8C67-0A975A90B837}" name="Table3" displayName="Table3" ref="A1:H4" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <autoFilter ref="A1:H4" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{340E4F10-C339-F64A-B4A0-6BA91FA595D8}" name="*file" dataDxfId="120"/>
-    <tableColumn id="1" xr3:uid="{292111BE-F2D3-0E46-9DFF-5BB162CDEBCD}" name="*resource" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{59F12491-5EFE-F14F-B220-749D24D90C3B}" name="*name" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{C8DC1E69-1D37-9E4B-B372-E3771052041B}" name="address_prefix_management" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{85521486-0C28-4E42-A5DD-305E9413CE33}" name="classic_access" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{B1695B9B-C8E2-6B40-822B-13E24CFC2F72}" name="resource_group" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{7270DC4E-CCCE-4547-B9C9-693DFDABB9B7}" name="tags" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{79C76CE0-ABAF-144C-995C-4803DD7D5317}" name="comments" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{340E4F10-C339-F64A-B4A0-6BA91FA595D8}" name="*file" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{292111BE-F2D3-0E46-9DFF-5BB162CDEBCD}" name="*resource" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{59F12491-5EFE-F14F-B220-749D24D90C3B}" name="*name" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{C8DC1E69-1D37-9E4B-B372-E3771052041B}" name="address_prefix_management" dataDxfId="197"/>
+    <tableColumn id="5" xr3:uid="{85521486-0C28-4E42-A5DD-305E9413CE33}" name="classic_access" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{B1695B9B-C8E2-6B40-822B-13E24CFC2F72}" name="resource_group" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{7270DC4E-CCCE-4547-B9C9-693DFDABB9B7}" name="tags" dataDxfId="194"/>
+    <tableColumn id="8" xr3:uid="{79C76CE0-ABAF-144C-995C-4803DD7D5317}" name="comments" dataDxfId="193"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99740F97-90BB-C54F-8BC8-7DAD5CD8AB08}" name="Table32362" displayName="Table32362" ref="A1:N5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:N5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="14">
+    <tableColumn id="7" xr3:uid="{F87DE0C2-FBA7-BA4D-BED9-97A21E44F7C0}" name="*file" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{CFA930D7-463D-6B44-9154-47D8DC4E5D92}" name="*resource" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B5994A69-9F3F-EB42-BA15-F1DDC88D9F4E}" name="*name" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{998F1DDE-6C5B-754F-8332-F4E65F672658}" name="*instance_template" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{F0AA838D-65EE-334F-BA27-FA28EBBB86F7}" name="*instance_count" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{494E6B28-2F1A-9043-B711-E5E5813EA62D}" name="*subnets" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{60247C4C-B642-0145-BA6B-CEDEADED113B}" name="application_port" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{087360A7-B4C1-5346-891B-711E6ADA9770}" name="load_balancer" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{576DD7E8-9736-ED4D-9F93-BA3B8D5E5C6B}" name="load_balancer_pool" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{49540DA6-618B-7145-BA05-EF497823680E}" name="resource_group" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{6D834464-5754-604C-9C9D-FD807AE731C3}" name="timeout.create" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{909909F8-6881-C843-BC63-649D539A2E9A}" name="timeout.update" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{94A2E646-A69F-AD4B-9FAE-311A45CA539C}" name="timeout.delete" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{5287BCF5-E332-C245-B07F-ABA8F92E796A}" name="comments" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7AF97C6-A14E-1C47-A02F-8D732266692B}" name="Table323625" displayName="Table323625" ref="A1:K5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:K5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="11">
+    <tableColumn id="7" xr3:uid="{CC4A076D-8510-C346-A519-E9998988691B}" name="*file" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{129E7379-EC43-3240-AF33-7BB1051F9AE2}" name="*resource" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{6175AEB2-CFD9-0C41-BEF2-F8425019D0E8}" name="name" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{BA3EE563-779B-7D44-8B55-BF76B228BD54}" name="*instance_group" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{CDBC9F60-B4E8-C343-A936-88F836377605}" name="enable_manager" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{3A72C856-54D2-BD4D-B801-177653640A3E}" name="manager_type" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{E6CAEBE6-1BB2-C04A-B73C-00BEA6380C35}" name="aggregation_window" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{A8613953-A85C-D34F-9849-29B33A1B4A7E}" name="cooldown" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{0AE31508-8344-C040-B61B-AF3A27CEF8B9}" name="*max_membership_count" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{FA71788E-807B-594D-9D5F-475BCE818732}" name="min_membership_count" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{F60D031F-4D80-8743-A4F8-A2F2A7F8FD73}" name="comments" dataDxfId="51"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3679B91E-3E6B-D74C-9F59-10BEA77942D0}" name="Table3236259" displayName="Table3236259" ref="A1:I5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:I5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="9">
+    <tableColumn id="7" xr3:uid="{E7B033C2-A05E-FE4B-B3F6-3913E1AB2516}" name="*file" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{EF6C6ACD-CB59-0F48-9A3D-D8EE9B75D5E3}" name="*resource" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{4BEFD650-A55A-E845-9BA1-AAC6D6F7CAF4}" name="name" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{E5DB040D-79DA-AB4C-8CAF-C52CA36A8BF9}" name="*policy_type" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{36613E53-630D-F44C-AF14-2D5F187CFF22}" name="*instance_group" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{6D61B31F-03F2-F043-8CC2-7372D2BEA62F}" name="*instance_group_manager" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{227B6C79-8819-D848-8BF0-A32F2848FF09}" name="metrc_type" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{34172AFD-EB25-374F-8A0A-588EB1A259D1}" name="metric_value" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{308C7FC8-A34C-8E41-83F1-AAE4E6FF0D42}" name="comments" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{69955682-0A9A-A74F-A370-7A10E52917FF}" name="Table714" displayName="Table714" ref="A1:AA5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:AA5" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
+  <tableColumns count="27">
+    <tableColumn id="11" xr3:uid="{13A2B92A-DB5F-894F-8559-A79CBC49DE0C}" name="*file" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{D863735B-2378-C141-A46F-BF47850AB7E3}" name="*resource" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{DC555CC0-DAFB-634E-ACCC-1E4FC7B694A0}" name="*name" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{1AF9DCC6-BEF3-2746-A55B-7F204CA70AA5}" name="*vpc" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B69D6F53-F413-AD42-8563-4B9C4E68FA75}" name="*zone" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{286053A1-FA2F-FA46-A954-40BEC18B90A5}" name="*profile" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C73489B6-AA47-BB43-BC95-6DA4F3A5528F}" name="*image" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{ED99714A-0C88-A548-A216-65B84A9D5BD0}" name="boot_volume.name" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{C25D273C-29B5-784F-8B84-1D993755D9C0}" name="boot_volume.encryption" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{B7EFA335-3935-0145-92AF-1E5048E3B417}" name="boot_volumn.size" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{C7973D7D-28E8-1740-AE8C-D463E6AC1E8E}" name="boot_volume.profile" dataDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{61193F78-566F-B140-90C3-6EED01F8A14A}" name="boot_volume.delete_volume_on_instance_delete" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E820A563-CD60-174E-A225-4723E25801A7}" name="*keys" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{5E30E018-B876-6341-935E-FEB1590854AA}" name="primary_network_interface.name" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{82696C33-7DB4-BF44-A9B7-C6E74F0556D1}" name="*primary_network_interface.subnet" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{10482568-521E-574B-BFEB-68BD5358CBC5}" name="primary_network_interface.security_groups" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{0C96486B-F1FD-3948-91BA-D04F8D757C89}" name="primary_network_interface.primary_ipv4_address" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{57FA4895-3501-B44F-BA3A-DE1F90A07F85}" name="network_interfaces.name" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{C34CED05-B419-384C-8837-99C8B247D9E9}" name="network_interfaces.subnet" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{6493B641-4742-474E-AD63-67AD88554E74}" name="network_interfaces.security_groups" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{1A6E9712-B0B2-6548-91CA-EAEC9868AE9F}" name="network_interfaces.primary_ipv4_address" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{0E098128-1CA2-8543-A220-5E27954A3CB2}" name="volume_attachments.name" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{F312D78E-014E-794E-AADD-652AAD932373}" name="volume_attachments.volume" dataDxfId="15"/>
+    <tableColumn id="31" xr3:uid="{3F5B5711-D6B7-E44A-BB00-6D6283E6BDD6}" name="volume_attachments.delete_volume_on_instance_delete" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{5554D5F7-923C-A847-8FE0-182681FFB6E8}" name="user_data" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{1153CB95-C604-5D4E-9907-4407C90FBAAD}" name="resource_group" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{1C184C7E-D021-5C4B-A337-E224FC0501AF}" name="comments" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C17477C5-2FED-C74F-9AD1-7A64C187935A}" name="Table3231015" displayName="Table3231015" ref="A1:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{0E368AE7-2FA1-404A-8E75-D4D20C279E2C}" name="*file" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{6A7A5A47-1619-A24A-9579-97495AB95246}" name="*resource" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3AF4A120-5934-654E-966C-BBEF89827454}" name="*name" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{1ECCA781-CBCC-FB43-B4EA-2BC7393B4A8F}" name="*target" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F00207F8-6BAB-D54D-9DBA-06AEC235146C}" name="*storage_bucket" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1C1C2D63-9CA3-5D45-B254-E5BC902A49B3}" name="active" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9021F42C-CDE0-3B4B-8A75-47DAC451AB9C}" name="resource_group" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4EFBE27A-E5C4-104E-948A-1C855D65BB4A}" name="tags" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7D6FD7B0-2BE6-6441-A59F-D8143B52E8B3}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{80D0EAB6-24C7-A740-BC9D-6186BC8E6FB5}" name="Table313" displayName="Table313" ref="A1:G5" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{80D0EAB6-24C7-A740-BC9D-6186BC8E6FB5}" name="Table313" displayName="Table313" ref="A1:G5" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:G5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{CA8AE98B-6B50-E24F-B2BD-282CD5516C27}" name="*file" dataDxfId="110"/>
-    <tableColumn id="1" xr3:uid="{3BCC355B-620B-6847-AC9E-522468082D6D}" name="*resource" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{1A7EE2EF-ECAA-C24E-BE7F-BDC7E7C66612}" name="*name" dataDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{7280C63B-6C9E-4B48-92B0-A3F1288C1832}" name="*vpc" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{0C1D8608-7A3A-B048-96C1-D354FEEA65A3}" name="*zone" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{A0A75B9A-7A60-5C49-AC20-4546ED8ECB0D}" name="cidr" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{8758895A-D42B-674D-BDF6-A66939975CE1}" name="comments" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{CA8AE98B-6B50-E24F-B2BD-282CD5516C27}" name="*file" dataDxfId="190"/>
+    <tableColumn id="1" xr3:uid="{3BCC355B-620B-6847-AC9E-522468082D6D}" name="*resource" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{1A7EE2EF-ECAA-C24E-BE7F-BDC7E7C66612}" name="*name" dataDxfId="188"/>
+    <tableColumn id="6" xr3:uid="{7280C63B-6C9E-4B48-92B0-A3F1288C1832}" name="*vpc" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{0C1D8608-7A3A-B048-96C1-D354FEEA65A3}" name="*zone" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{A0A75B9A-7A60-5C49-AC20-4546ED8ECB0D}" name="cidr" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{8758895A-D42B-674D-BDF6-A66939975CE1}" name="comments" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7E4E482-6BB9-E248-AF8D-C5304BC1A44F}" name="Table3236" displayName="Table3236" ref="A1:H5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7E4E482-6BB9-E248-AF8D-C5304BC1A44F}" name="Table3236" displayName="Table3236" ref="A1:H5" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
   <autoFilter ref="A1:H5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{CE9B09DC-223D-5948-AC6B-A4581B87B9FF}" name="*file" dataDxfId="101"/>
-    <tableColumn id="1" xr3:uid="{60C065E1-55B2-104C-9BD3-648FFAC30A51}" name="*resource" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{EE4AA5A4-75BE-FF4E-8F15-36A9E95772C8}" name="*name" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{8BD05EA0-AFD7-AF41-B934-9ECEE2438312}" name="*vpc" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{92355D65-8FB2-FA47-80DC-D34EF9FEADBD}" name="*zone" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{EF21D846-0B2C-9441-B0FD-2EA28736C729}" name="*destination" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{7D2B7989-C527-9D46-A034-89A1FB4BA0D5}" name="*next_hop" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{E7227433-2B78-9D4D-8881-D527D5A672B7}" name="comments" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{CE9B09DC-223D-5948-AC6B-A4581B87B9FF}" name="*file" dataDxfId="181"/>
+    <tableColumn id="1" xr3:uid="{60C065E1-55B2-104C-9BD3-648FFAC30A51}" name="*resource" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{EE4AA5A4-75BE-FF4E-8F15-36A9E95772C8}" name="*name" dataDxfId="179"/>
+    <tableColumn id="3" xr3:uid="{8BD05EA0-AFD7-AF41-B934-9ECEE2438312}" name="*vpc" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{92355D65-8FB2-FA47-80DC-D34EF9FEADBD}" name="*zone" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{EF21D846-0B2C-9441-B0FD-2EA28736C729}" name="*destination" dataDxfId="176"/>
+    <tableColumn id="5" xr3:uid="{7D2B7989-C527-9D46-A034-89A1FB4BA0D5}" name="*next_hop" dataDxfId="175"/>
+    <tableColumn id="8" xr3:uid="{E7227433-2B78-9D4D-8881-D527D5A672B7}" name="comments" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:O14" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:O14" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:O14" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*file" dataDxfId="91"/>
-    <tableColumn id="20" xr3:uid="{5943CD7A-B5EC-7B40-8BA3-EBD8220428FF}" name="*resource" dataDxfId="90"/>
-    <tableColumn id="13" xr3:uid="{D3929CC1-816E-924A-B3D9-F8BE28A4FD4C}" name="*name" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{9C2673D8-AB9A-9645-A3ED-D9B779022434}" name="*vpc" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{9F7D1843-FE18-EE45-A0D8-E33F82A21A7E}" name="resource_group" dataDxfId="81"/>
-    <tableColumn id="15" xr3:uid="{7567182C-2521-7148-9E1E-B075E05FD1EF}" name="timeout.create" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{4ACD08CD-3C38-7244-A429-7A0C64B01515}" name="timeout.update" dataDxfId="79"/>
-    <tableColumn id="16" xr3:uid="{604C7CD3-60C9-9B43-9759-6426B139DA7C}" name="timeout.delete" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{82B01E0D-ECB0-024D-B579-25B381FC228D}" name="comments" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*file" dataDxfId="171"/>
+    <tableColumn id="20" xr3:uid="{5943CD7A-B5EC-7B40-8BA3-EBD8220428FF}" name="*resource" dataDxfId="170"/>
+    <tableColumn id="13" xr3:uid="{D3929CC1-816E-924A-B3D9-F8BE28A4FD4C}" name="*name" dataDxfId="169"/>
+    <tableColumn id="11" xr3:uid="{9C2673D8-AB9A-9645-A3ED-D9B779022434}" name="*vpc" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="164"/>
+    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="162"/>
+    <tableColumn id="12" xr3:uid="{9F7D1843-FE18-EE45-A0D8-E33F82A21A7E}" name="resource_group" dataDxfId="161"/>
+    <tableColumn id="15" xr3:uid="{7567182C-2521-7148-9E1E-B075E05FD1EF}" name="timeout.create" dataDxfId="160"/>
+    <tableColumn id="14" xr3:uid="{4ACD08CD-3C38-7244-A429-7A0C64B01515}" name="timeout.update" dataDxfId="159"/>
+    <tableColumn id="16" xr3:uid="{604C7CD3-60C9-9B43-9759-6426B139DA7C}" name="timeout.delete" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{82B01E0D-ECB0-024D-B579-25B381FC228D}" name="comments" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:X11" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:X11" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A1:X11" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
   <tableColumns count="24">
-    <tableColumn id="11" xr3:uid="{C312D547-C899-B54A-8C78-2627C59BE698}" name="*file" dataDxfId="74"/>
-    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*resource" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{B05647B5-4075-584D-BFA2-184B7558EF5E}" name="*name" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{AECA3B2B-972B-2947-B76F-3FE48277F64A}" name="*vpc" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="*image" dataDxfId="68"/>
-    <tableColumn id="14" xr3:uid="{1A5FD37C-8F61-7B49-9DE5-C024F0CC91E5}" name="boot_volume.name" dataDxfId="67"/>
-    <tableColumn id="22" xr3:uid="{EE5AAA60-CB22-C74A-9CC2-D51DD5B0DD65}" name="boot_volume.encryption" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_network_interface.name" dataDxfId="64"/>
-    <tableColumn id="21" xr3:uid="{DDD37876-0117-6140-842E-18A729C330C8}" name="*primary_network_interface.subnet" dataDxfId="63"/>
-    <tableColumn id="20" xr3:uid="{EC1E0AEE-B8DD-2145-B373-A9AEFFCF12E6}" name="primary_network_interface.security_groups" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces.name" dataDxfId="61"/>
-    <tableColumn id="16" xr3:uid="{21E0F340-105F-0540-B4FF-9EF83CAC0917}" name="network_interfaces.subnet" dataDxfId="60"/>
-    <tableColumn id="23" xr3:uid="{F3FE0F95-9B4D-5C46-AA1B-68E7C904AEEF}" name="network_interfaces.security_groups" dataDxfId="59"/>
-    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="58"/>
-    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="57"/>
-    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{E502A166-3100-FF4A-9402-397D4F4E4E1A}" name="tags" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="timeout_create" dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{35D34496-719B-A04D-99AA-CD60179A1A6E}" name="timeout_delete" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="count" dataDxfId="52"/>
-    <tableColumn id="24" xr3:uid="{E4D23545-B894-EB46-8FB9-A2EF7A1F55DC}" name="comments" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{C312D547-C899-B54A-8C78-2627C59BE698}" name="*file" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*resource" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{B05647B5-4075-584D-BFA2-184B7558EF5E}" name="*name" dataDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{AECA3B2B-972B-2947-B76F-3FE48277F64A}" name="*vpc" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="*image" dataDxfId="148"/>
+    <tableColumn id="14" xr3:uid="{1A5FD37C-8F61-7B49-9DE5-C024F0CC91E5}" name="boot_volume.name" dataDxfId="147"/>
+    <tableColumn id="22" xr3:uid="{EE5AAA60-CB22-C74A-9CC2-D51DD5B0DD65}" name="boot_volume.encryption" dataDxfId="146"/>
+    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_network_interface.name" dataDxfId="144"/>
+    <tableColumn id="21" xr3:uid="{DDD37876-0117-6140-842E-18A729C330C8}" name="*primary_network_interface.subnet" dataDxfId="143"/>
+    <tableColumn id="20" xr3:uid="{EC1E0AEE-B8DD-2145-B373-A9AEFFCF12E6}" name="primary_network_interface.security_groups" dataDxfId="142"/>
+    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces.name" dataDxfId="141"/>
+    <tableColumn id="16" xr3:uid="{21E0F340-105F-0540-B4FF-9EF83CAC0917}" name="network_interfaces.subnet" dataDxfId="140"/>
+    <tableColumn id="23" xr3:uid="{F3FE0F95-9B4D-5C46-AA1B-68E7C904AEEF}" name="network_interfaces.security_groups" dataDxfId="139"/>
+    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="138"/>
+    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="137"/>
+    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{E502A166-3100-FF4A-9402-397D4F4E4E1A}" name="tags" dataDxfId="135"/>
+    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="timeout_create" dataDxfId="134"/>
+    <tableColumn id="15" xr3:uid="{35D34496-719B-A04D-99AA-CD60179A1A6E}" name="timeout_delete" dataDxfId="133"/>
+    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="count" dataDxfId="132"/>
+    <tableColumn id="24" xr3:uid="{E4D23545-B894-EB46-8FB9-A2EF7A1F55DC}" name="comments" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C451A855-5250-674B-8039-E23EC3348E96}" name="Table11" displayName="Table11" ref="A1:N5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C451A855-5250-674B-8039-E23EC3348E96}" name="Table11" displayName="Table11" ref="A1:N5" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A1:N5" xr:uid="{8CD156A6-A66F-1245-BCD2-9FAE26A0A77C}"/>
   <tableColumns count="14">
-    <tableColumn id="15" xr3:uid="{9E45B3FE-088C-1043-8CD4-79D757E3B113}" name="*file" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{ADA7B05E-2042-0842-B4FA-B8F9422C32EC}" name="*resource" dataDxfId="47"/>
-    <tableColumn id="1" xr3:uid="{CDC18A34-D228-8E41-90CD-62AD9ACAF229}" name="*name" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{480E110A-7DA0-1A46-B19A-DAB8291BA972}" name="*profile" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{1B453B9B-A3A5-5948-96F3-62C87F788C3A}" name="*zone" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{6CC60290-7B72-D343-A43F-F0F762500CF4}" name="iops" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{45C880C0-FF4F-2F4A-919A-124DB93E5010}" name="capacity" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{787D8375-0B24-5F42-A273-3093BD8B60EC}" name="encryption_key" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{392944E6-6831-6F41-86DE-438B3577B0C6}" name="resource_group" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{2D73C361-1CE6-FF4D-BC45-651F77AC5BE1}" name="resource_controller_url" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{6B77DCCF-F340-0A42-B34C-B1E50E6E3A9E}" name="tags" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{DC38DEC2-7381-DD45-A09D-F3050D08CA1E}" name="timeout.create" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{63225B45-4949-7A45-9F18-531EB8888D63}" name="timeout.delete" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{9D59BAAA-3EFD-6942-B905-A5F0EA231122}" name="comments" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{9E45B3FE-088C-1043-8CD4-79D757E3B113}" name="*file" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{ADA7B05E-2042-0842-B4FA-B8F9422C32EC}" name="*resource" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{CDC18A34-D228-8E41-90CD-62AD9ACAF229}" name="*name" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{480E110A-7DA0-1A46-B19A-DAB8291BA972}" name="*profile" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{1B453B9B-A3A5-5948-96F3-62C87F788C3A}" name="*zone" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{6CC60290-7B72-D343-A43F-F0F762500CF4}" name="iops" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{45C880C0-FF4F-2F4A-919A-124DB93E5010}" name="capacity" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{787D8375-0B24-5F42-A273-3093BD8B60EC}" name="encryption_key" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{392944E6-6831-6F41-86DE-438B3577B0C6}" name="resource_group" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{2D73C361-1CE6-FF4D-BC45-651F77AC5BE1}" name="resource_controller_url" dataDxfId="119"/>
+    <tableColumn id="13" xr3:uid="{6B77DCCF-F340-0A42-B34C-B1E50E6E3A9E}" name="tags" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{DC38DEC2-7381-DD45-A09D-F3050D08CA1E}" name="timeout.create" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{63225B45-4949-7A45-9F18-531EB8888D63}" name="timeout.delete" dataDxfId="116"/>
+    <tableColumn id="11" xr3:uid="{9D59BAAA-3EFD-6942-B905-A5F0EA231122}" name="comments" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CC6AE3F-9734-ED45-8903-103E4A3651C5}" name="Table323" displayName="Table323" ref="A1:G5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CC6AE3F-9734-ED45-8903-103E4A3651C5}" name="Table323" displayName="Table323" ref="A1:G5" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="A1:G5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{C8FF2734-BE1B-0842-8813-8FC327A9774A}" name="*resource" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{9D2269D2-DAC7-7A44-AA65-217A6B5A9326}" name="*name" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{AA9DBEBB-EC6B-E848-9DA7-CEA5574D32E3}" name="*href" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{4531D242-4648-604D-A4F0-6C45B93511A5}" name="*operating_system" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{820303A7-0B6A-BA48-B2C6-0BCED3884DAB}" name="resource_group" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{6B88A27A-C37D-D440-A63A-59083B5F8D69}" name="tags" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{985DA3EA-C986-E04C-808D-664748575A40}" name="comments" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C8FF2734-BE1B-0842-8813-8FC327A9774A}" name="*resource" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{9D2269D2-DAC7-7A44-AA65-217A6B5A9326}" name="*name" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{AA9DBEBB-EC6B-E848-9DA7-CEA5574D32E3}" name="*href" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{4531D242-4648-604D-A4F0-6C45B93511A5}" name="*operating_system" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{820303A7-0B6A-BA48-B2C6-0BCED3884DAB}" name="resource_group" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{6B88A27A-C37D-D440-A63A-59083B5F8D69}" name="tags" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{985DA3EA-C986-E04C-808D-664748575A40}" name="comments" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6552C07F-EB8B-624C-B923-480C01A6D118}" name="Table32310" displayName="Table32310" ref="A1:J8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6552C07F-EB8B-624C-B923-480C01A6D118}" name="Table32310" displayName="Table32310" ref="A1:J8" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="A1:J8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{F2E90068-5C88-AB45-95BB-D7ED929152A5}" name="*file" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{4A0384A9-C294-4546-AAA8-D2CD531C4DD5}" name="*resource" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{92E92614-F08C-C24C-BC25-EFF06E49A7B0}" name="*name" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{A4B81C57-BCB8-1145-A862-A8022AC95A72}" name="target" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{2FAC087F-4C6B-A54B-AC75-F25799387B85}" name="zone" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{E0D1E75B-B4E8-D34A-A3B6-40995A6B8667}" name="resource_group" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{EF2FB7C8-85F5-D14F-B25F-863F24D248CF}" name="timeout.create" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CB52DB2E-8120-844C-878A-453EB7AF6172}" name="timeout.delete" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{CFBD67C6-4C5E-D143-9FC9-4B9B0A3F0F65}" name="count" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{0BA18536-D878-914B-BAAD-43ECB39D0955}" name="comments" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{F2E90068-5C88-AB45-95BB-D7ED929152A5}" name="*file" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{4A0384A9-C294-4546-AAA8-D2CD531C4DD5}" name="*resource" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{92E92614-F08C-C24C-BC25-EFF06E49A7B0}" name="*name" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{A4B81C57-BCB8-1145-A862-A8022AC95A72}" name="target" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{2FAC087F-4C6B-A54B-AC75-F25799387B85}" name="zone" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{E0D1E75B-B4E8-D34A-A3B6-40995A6B8667}" name="resource_group" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{EF2FB7C8-85F5-D14F-B25F-863F24D248CF}" name="timeout.create" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{CB52DB2E-8120-844C-878A-453EB7AF6172}" name="timeout.delete" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{CFBD67C6-4C5E-D143-9FC9-4B9B0A3F0F65}" name="count" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{0BA18536-D878-914B-BAAD-43ECB39D0955}" name="comments" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{84124973-0DD2-E14C-AE4F-009FA40F3C90}" name="Table3231011" displayName="Table3231011" ref="A1:L5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{84124973-0DD2-E14C-AE4F-009FA40F3C90}" name="Table3231011" displayName="Table3231011" ref="A1:L5" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:L5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{BBE2BEDB-BA14-AF4C-8145-72293C7E410B}" name="*file" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{56966C65-6E92-2B49-9AD5-52AF7A1437DE}" name="*resource" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{C12BE473-955B-BF41-90F6-8A401D694011}" name="*name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{554340C2-5543-584F-B46A-49C958EA5A44}" name="*vpc" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0A93D9DD-D272-A74A-9699-52C56DBF2F0B}" name="*zone" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3AE82495-6BD6-564F-8CF5-EE6F402D714E}" name="floating_ip.id" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{0F341D72-00E6-0E46-A5E4-3EF40F663948}" name="floating_ip.address" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A73C8507-7B71-B54C-B6A9-8EB6B72CC2BD}" name="resource_controller_url" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{14EA033B-8397-1E4C-BC95-D8C4A8353921}" name="resource_group" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{96188887-86BE-214B-88C8-BBAE7AB7037F}" name="timeout.create" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A106A0EE-A8AF-2348-A534-07EB8E396F98}" name="timeout.delete" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{18943A5F-A2F6-5F4E-9358-2351A368DBFA}" name="comments" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{BBE2BEDB-BA14-AF4C-8145-72293C7E410B}" name="*file" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{56966C65-6E92-2B49-9AD5-52AF7A1437DE}" name="*resource" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{C12BE473-955B-BF41-90F6-8A401D694011}" name="*name" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{554340C2-5543-584F-B46A-49C958EA5A44}" name="*vpc" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{0A93D9DD-D272-A74A-9699-52C56DBF2F0B}" name="*zone" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{3AE82495-6BD6-564F-8CF5-EE6F402D714E}" name="floating_ip.id" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{0F341D72-00E6-0E46-A5E4-3EF40F663948}" name="floating_ip.address" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{A73C8507-7B71-B54C-B6A9-8EB6B72CC2BD}" name="resource_controller_url" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{14EA033B-8397-1E4C-BC95-D8C4A8353921}" name="resource_group" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{96188887-86BE-214B-88C8-BBAE7AB7037F}" name="timeout.create" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{A106A0EE-A8AF-2348-A534-07EB8E396F98}" name="timeout.delete" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{18943A5F-A2F6-5F4E-9358-2351A368DBFA}" name="comments" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1579,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FDFB22-8BE6-E54E-B5DD-237ED87A155B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1657,6 +2150,757 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA289C06-42FF-5747-8F03-000A7FDC187C}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B5725F-B701-DA44-8691-89D09D258E14}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1834CC26-8FEE-9646-8A84-B411A1B2C17B}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C54B3-94F3-1C43-B895-8215A077E8FB}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C47A1-CACA-8E45-B15B-80562DBA8607}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/vpcwebapp/xlsx/vpc.xlsx
+++ b/examples/vpcwebapp/xlsx/vpc.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcmodules/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D61B6B-0531-204E-B3A4-D0CC39C92888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A425FC-D991-B24B-9EAB-EE76A787E624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2480" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="3560" windowWidth="16520" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpcs" sheetId="56" r:id="rId1"/>
     <sheet name="vpcaddresses" sheetId="57" r:id="rId2"/>
     <sheet name="vpcroutes" sheetId="53" r:id="rId3"/>
     <sheet name="subnets" sheetId="26" r:id="rId4"/>
-    <sheet name="flowlogs" sheetId="62" r:id="rId5"/>
-    <sheet name="resourcegroups" sheetId="63" r:id="rId6"/>
+    <sheet name="publicgateways" sheetId="63" r:id="rId5"/>
+    <sheet name="flowlogs" sheetId="62" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>public_gateway</t>
   </si>
@@ -134,18 +134,6 @@
     <t>var.dbtier-subnet-zone2</t>
   </si>
   <si>
-    <t>vpn-subnet-zone1</t>
-  </si>
-  <si>
-    <t>vpn-subnet-zone2</t>
-  </si>
-  <si>
-    <t>var.vpn-subnet-zone1</t>
-  </si>
-  <si>
-    <t>var.vpn-subnet-zone2</t>
-  </si>
-  <si>
     <t>var.address-prefix1</t>
   </si>
   <si>
@@ -173,18 +161,6 @@
     <t>timeout.delete</t>
   </si>
   <si>
-    <t>"${var.vpc-name}-${var.zone1}-vpn"</t>
-  </si>
-  <si>
-    <t>"${var.vpc-name}-${var.zone2}-vpn"</t>
-  </si>
-  <si>
-    <t>vpn.tf</t>
-  </si>
-  <si>
-    <t>bastion.tf</t>
-  </si>
-  <si>
     <t>"${var.vpc-name}-${var.zone1}-webapptier"</t>
   </si>
   <si>
@@ -203,24 +179,12 @@
     <t>"${var.vpc-name}-${var.zone2}-bastion"</t>
   </si>
   <si>
-    <t>ibm_resource_group.group.id</t>
-  </si>
-  <si>
     <t>"zone1-cidr1"</t>
   </si>
   <si>
     <t>"zone2-cidr1"</t>
   </si>
   <si>
-    <t>ibm_is_network_acl.dbtier-acl.id</t>
-  </si>
-  <si>
-    <t>ibm_is_network_acl.webapptier-acl.id</t>
-  </si>
-  <si>
-    <t>ibm_is_network_acl.vpn-acl.id</t>
-  </si>
-  <si>
     <t>Create new VPC</t>
   </si>
   <si>
@@ -242,12 +206,6 @@
     <t>Create db subnet in zone2</t>
   </si>
   <si>
-    <t>Create subnet for VPNaaS in zone1</t>
-  </si>
-  <si>
-    <t>Create subnet for VPNaaS in zone2</t>
-  </si>
-  <si>
     <t>Create subnet for bastion instance in zone1</t>
   </si>
   <si>
@@ -257,9 +215,6 @@
     <t>Create new address prefix in zone2</t>
   </si>
   <si>
-    <t>main.tf</t>
-  </si>
-  <si>
     <t>*target</t>
   </si>
   <si>
@@ -269,25 +224,52 @@
     <t>active</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>var.resource-group</t>
-  </si>
-  <si>
-    <t>Define general resource group</t>
-  </si>
-  <si>
-    <t>cis.tf</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>var.cis-resource-group</t>
-  </si>
-  <si>
-    <t>Define CIS resource group</t>
+    <t>module</t>
+  </si>
+  <si>
+    <t>subnets.tf</t>
+  </si>
+  <si>
+    <t>vpc.tf</t>
+  </si>
+  <si>
+    <t>vpc</t>
+  </si>
+  <si>
+    <t>var.group-id</t>
+  </si>
+  <si>
+    <t>Assign Public Gateway to zone2</t>
+  </si>
+  <si>
+    <t>"${var.vpc-name}-${var.zone2}-pubgw"</t>
+  </si>
+  <si>
+    <t>pubgw-zone2</t>
+  </si>
+  <si>
+    <t>Assign Public Gateway to zone1</t>
+  </si>
+  <si>
+    <t>"${var.vpc-name}-${var.zone1}-pubgw"</t>
+  </si>
+  <si>
+    <t>pubgw-zone1</t>
+  </si>
+  <si>
+    <t>resource_controller_url</t>
+  </si>
+  <si>
+    <t>floating_ip.address</t>
+  </si>
+  <si>
+    <t>floating_ip.id</t>
+  </si>
+  <si>
+    <t>var.webapptier-acl-id</t>
+  </si>
+  <si>
+    <t>var.dbtier-acl-id</t>
   </si>
 </sst>
 </file>
@@ -385,7 +367,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="77">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -444,6 +441,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -501,6 +510,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -537,6 +549,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -570,12 +585,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -628,106 +649,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9570D1AD-4F2D-D14C-8C67-0A975A90B837}" name="Table3" displayName="Table3" ref="A1:H4" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:H4" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{340E4F10-C339-F64A-B4A0-6BA91FA595D8}" name="*file" dataDxfId="61"/>
-    <tableColumn id="1" xr3:uid="{292111BE-F2D3-0E46-9DFF-5BB162CDEBCD}" name="*resource" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{59F12491-5EFE-F14F-B220-749D24D90C3B}" name="*name" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{C8DC1E69-1D37-9E4B-B372-E3771052041B}" name="address_prefix_management" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{85521486-0C28-4E42-A5DD-305E9413CE33}" name="classic_access" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{B1695B9B-C8E2-6B40-822B-13E24CFC2F72}" name="resource_group" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{7270DC4E-CCCE-4547-B9C9-693DFDABB9B7}" name="tags" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{79C76CE0-ABAF-144C-995C-4803DD7D5317}" name="comments" dataDxfId="54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9570D1AD-4F2D-D14C-8C67-0A975A90B837}" name="Table3" displayName="Table3" ref="A1:I4" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A1:I4" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="9">
+    <tableColumn id="7" xr3:uid="{340E4F10-C339-F64A-B4A0-6BA91FA595D8}" name="*file" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{292111BE-F2D3-0E46-9DFF-5BB162CDEBCD}" name="*resource" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{59F12491-5EFE-F14F-B220-749D24D90C3B}" name="*name" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{C8DC1E69-1D37-9E4B-B372-E3771052041B}" name="address_prefix_management" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{85521486-0C28-4E42-A5DD-305E9413CE33}" name="classic_access" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{B1695B9B-C8E2-6B40-822B-13E24CFC2F72}" name="resource_group" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{7270DC4E-CCCE-4547-B9C9-693DFDABB9B7}" name="tags" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{2B82F178-BBAF-1B47-BAD4-ACADC7320621}" name="module" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{79C76CE0-ABAF-144C-995C-4803DD7D5317}" name="comments" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{80D0EAB6-24C7-A740-BC9D-6186BC8E6FB5}" name="Table313" displayName="Table313" ref="A1:G5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:G5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{CA8AE98B-6B50-E24F-B2BD-282CD5516C27}" name="*file" dataDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{3BCC355B-620B-6847-AC9E-522468082D6D}" name="*resource" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{1A7EE2EF-ECAA-C24E-BE7F-BDC7E7C66612}" name="*name" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{7280C63B-6C9E-4B48-92B0-A3F1288C1832}" name="*vpc" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{0C1D8608-7A3A-B048-96C1-D354FEEA65A3}" name="*zone" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{A0A75B9A-7A60-5C49-AC20-4546ED8ECB0D}" name="cidr" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{8758895A-D42B-674D-BDF6-A66939975CE1}" name="comments" dataDxfId="45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{80D0EAB6-24C7-A740-BC9D-6186BC8E6FB5}" name="Table313" displayName="Table313" ref="A1:H5" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A1:H5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="8">
+    <tableColumn id="3" xr3:uid="{CA8AE98B-6B50-E24F-B2BD-282CD5516C27}" name="*file" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{3BCC355B-620B-6847-AC9E-522468082D6D}" name="*resource" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{1A7EE2EF-ECAA-C24E-BE7F-BDC7E7C66612}" name="*name" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{7280C63B-6C9E-4B48-92B0-A3F1288C1832}" name="*vpc" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{0C1D8608-7A3A-B048-96C1-D354FEEA65A3}" name="*zone" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{A0A75B9A-7A60-5C49-AC20-4546ED8ECB0D}" name="cidr" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{03F46EA0-A08C-AF4F-A107-458DEDB7B9A5}" name="module" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{8758895A-D42B-674D-BDF6-A66939975CE1}" name="comments" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7E4E482-6BB9-E248-AF8D-C5304BC1A44F}" name="Table3236" displayName="Table3236" ref="A1:H5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:H5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{CE9B09DC-223D-5948-AC6B-A4581B87B9FF}" name="*file" dataDxfId="42"/>
-    <tableColumn id="1" xr3:uid="{60C065E1-55B2-104C-9BD3-648FFAC30A51}" name="*resource" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{EE4AA5A4-75BE-FF4E-8F15-36A9E95772C8}" name="*name" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{8BD05EA0-AFD7-AF41-B934-9ECEE2438312}" name="*vpc" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{92355D65-8FB2-FA47-80DC-D34EF9FEADBD}" name="*zone" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{EF21D846-0B2C-9441-B0FD-2EA28736C729}" name="*destination" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{7D2B7989-C527-9D46-A034-89A1FB4BA0D5}" name="*next_hop" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{E7227433-2B78-9D4D-8881-D527D5A672B7}" name="comments" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7E4E482-6BB9-E248-AF8D-C5304BC1A44F}" name="Table3236" displayName="Table3236" ref="A1:I5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:I5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="9">
+    <tableColumn id="7" xr3:uid="{CE9B09DC-223D-5948-AC6B-A4581B87B9FF}" name="*file" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{60C065E1-55B2-104C-9BD3-648FFAC30A51}" name="*resource" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{EE4AA5A4-75BE-FF4E-8F15-36A9E95772C8}" name="*name" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{8BD05EA0-AFD7-AF41-B934-9ECEE2438312}" name="*vpc" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{92355D65-8FB2-FA47-80DC-D34EF9FEADBD}" name="*zone" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{EF21D846-0B2C-9441-B0FD-2EA28736C729}" name="*destination" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{7D2B7989-C527-9D46-A034-89A1FB4BA0D5}" name="*next_hop" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{CB279566-F8AE-A64E-9B94-CE7EB7E8024F}" name="module" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{E7227433-2B78-9D4D-8881-D527D5A672B7}" name="comments" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:O14" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:O14" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*file" dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{5943CD7A-B5EC-7B40-8BA3-EBD8220428FF}" name="*resource" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{D3929CC1-816E-924A-B3D9-F8BE28A4FD4C}" name="*name" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{9C2673D8-AB9A-9645-A3ED-D9B779022434}" name="*vpc" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{9F7D1843-FE18-EE45-A0D8-E33F82A21A7E}" name="resource_group" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{7567182C-2521-7148-9E1E-B075E05FD1EF}" name="timeout.create" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{4ACD08CD-3C38-7244-A429-7A0C64B01515}" name="timeout.update" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{604C7CD3-60C9-9B43-9759-6426B139DA7C}" name="timeout.delete" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{82B01E0D-ECB0-024D-B579-25B381FC228D}" name="comments" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:P11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:P11" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*file" dataDxfId="42"/>
+    <tableColumn id="20" xr3:uid="{5943CD7A-B5EC-7B40-8BA3-EBD8220428FF}" name="*resource" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{D3929CC1-816E-924A-B3D9-F8BE28A4FD4C}" name="*name" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{9C2673D8-AB9A-9645-A3ED-D9B779022434}" name="*vpc" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{9F7D1843-FE18-EE45-A0D8-E33F82A21A7E}" name="resource_group" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{7567182C-2521-7148-9E1E-B075E05FD1EF}" name="timeout.create" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{4ACD08CD-3C38-7244-A429-7A0C64B01515}" name="timeout.update" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{604C7CD3-60C9-9B43-9759-6426B139DA7C}" name="timeout.delete" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{EC8E58C2-95F8-E44C-A60D-4A71D6C66163}" name="module" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{82B01E0D-ECB0-024D-B579-25B381FC228D}" name="comments" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C17477C5-2FED-C74F-9AD1-7A64C187935A}" name="Table3231015" displayName="Table3231015" ref="A1:I8" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:I8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{0E368AE7-2FA1-404A-8E75-D4D20C279E2C}" name="*file" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{6A7A5A47-1619-A24A-9579-97495AB95246}" name="*resource" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{3AF4A120-5934-654E-966C-BBEF89827454}" name="*name" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1ECCA781-CBCC-FB43-B4EA-2BC7393B4A8F}" name="*target" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F00207F8-6BAB-D54D-9DBA-06AEC235146C}" name="*storage_bucket" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1C1C2D63-9CA3-5D45-B254-E5BC902A49B3}" name="active" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9021F42C-CDE0-3B4B-8A75-47DAC451AB9C}" name="resource_group" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{4EFBE27A-E5C4-104E-948A-1C855D65BB4A}" name="tags" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{7D6FD7B0-2BE6-6441-A59F-D8143B52E8B3}" name="comments" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15862AA1-3547-274E-973B-5AB972CD057F}" name="Table3231011" displayName="Table3231011" ref="A1:M5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:M5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="13">
+    <tableColumn id="9" xr3:uid="{B3BD7540-54C1-0F49-8287-61F0E57A5C1D}" name="*file" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{2ADF0244-041D-9246-A21F-DB2F3EC21366}" name="*resource" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{B6ACE3C1-5F61-5444-9202-4D8BD284D1A7}" name="*name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{869F44BB-8551-1C41-86A6-0C29890DCD6E}" name="*vpc" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3B2576C4-2B90-BC4E-B858-C0ED933CD555}" name="*zone" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{A864486B-F6BD-C644-B070-23D3E771259D}" name="floating_ip.id" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{BAA6757A-9ED2-E84C-8A84-C01569A8B6A7}" name="floating_ip.address" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{2F47C036-3A79-3E4F-A94A-CF63962D80A9}" name="resource_controller_url" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{A1E3B8F6-482E-614D-B334-47361956D739}" name="resource_group" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{1F5D2F7B-20A4-F242-AA4A-A84C0F08A134}" name="timeout.create" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{6A4ADA42-10FA-EF45-9E1C-50E65CFB1F4C}" name="timeout.delete" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{EDF8A072-9972-144C-9C96-C7669DEE29BF}" name="module" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{04E7504F-8667-6A4F-8BE8-086667BD68A1}" name="comments" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{184962D6-35BC-CC4E-8D64-3E6A5E951CD1}" name="Table329" displayName="Table329" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E5" xr:uid="{853761A8-3C8D-D146-AF16-A9CD69B737CB}"/>
-  <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{EC93AB09-3E23-014A-967D-832B0E068626}" name="*file" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{15A8DB4F-2103-4743-A096-C3BC5B32875D}" name="*resource" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{8AE5FBBE-1418-5742-9C7F-AE2C5CE7783B}" name="*name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1513F203-F594-D846-BF85-28D38B911AEF}" name="tags" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D879D99B-4311-FE4E-AC6F-780FAD3CA12A}" name="comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C17477C5-2FED-C74F-9AD1-7A64C187935A}" name="Table3231015" displayName="Table3231015" ref="A1:J8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="10">
+    <tableColumn id="9" xr3:uid="{0E368AE7-2FA1-404A-8E75-D4D20C279E2C}" name="*file" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6A7A5A47-1619-A24A-9579-97495AB95246}" name="*resource" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{3AF4A120-5934-654E-966C-BBEF89827454}" name="*name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{1ECCA781-CBCC-FB43-B4EA-2BC7393B4A8F}" name="*target" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F00207F8-6BAB-D54D-9DBA-06AEC235146C}" name="*storage_bucket" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1C1C2D63-9CA3-5D45-B254-E5BC902A49B3}" name="active" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9021F42C-CDE0-3B4B-8A75-47DAC451AB9C}" name="resource_group" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4EFBE27A-E5C4-104E-948A-1C855D65BB4A}" name="tags" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{964F458D-FB0A-364D-A1DB-9752514D498E}" name="module" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7D6FD7B0-2BE6-6441-A59F-D8143B52E8B3}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -996,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FDFB22-8BE6-E54E-B5DD-237ED87A155B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1006,14 +1040,15 @@
     <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -1036,10 +1071,13 @@
       <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -1050,14 +1088,17 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1066,8 +1107,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1076,6 +1118,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A4ED22-CAD2-7D4D-9CD7-E99CB87106A9}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1098,12 +1141,13 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -1123,54 +1167,63 @@
       <c r="G1" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1178,8 +1231,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1187,6 +1241,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1198,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E341B84-0FAA-F64A-AA01-BA6699EAC299}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1210,12 +1265,14 @@
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -1238,8 +1295,11 @@
       <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1248,8 +1308,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1258,8 +1319,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1268,8 +1330,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1278,6 +1341,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1290,9 +1354,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E633D9-8336-4776-A01F-1859C551A2C4}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1303,19 +1369,20 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50" customWidth="1"/>
-    <col min="16" max="18" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>18</v>
@@ -1348,30 +1415,33 @@
         <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -1382,33 +1452,36 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -1419,13 +1492,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1433,8 +1506,11 @@
       <c r="O3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1450,19 +1526,20 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -1473,33 +1550,36 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -1510,22 +1590,25 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1541,82 +1624,85 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>256</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>256</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1632,119 +1718,34 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>256</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>256</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1756,12 +1757,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796EBB83-7715-0340-AC67-97AE7A7365D7}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C47A1-CACA-8E45-B15B-80562DBA8607}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1772,13 +1933,13 @@
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -1787,13 +1948,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1804,8 +1965,11 @@
       <c r="I1" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1815,8 +1979,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1827,8 +1992,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1838,8 +2004,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1849,8 +2016,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1860,8 +2028,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1871,8 +2040,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1882,90 +2052,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F822DC24-C1F8-7341-8CB3-D8ADAFD8B03F}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
